--- a/stock/data/SK아이이테크놀리지.xlsx
+++ b/stock/data/SK아이이테크놀리지.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:G747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16867,10 +16867,769 @@
         <v>73200</v>
       </c>
       <c r="F714" t="n">
-        <v>101439</v>
+        <v>102709</v>
       </c>
       <c r="G714" t="n">
         <v>0.1367989056087551</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B715" t="n">
+        <v>73700</v>
+      </c>
+      <c r="C715" t="n">
+        <v>73800</v>
+      </c>
+      <c r="D715" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E715" t="n">
+        <v>72900</v>
+      </c>
+      <c r="F715" t="n">
+        <v>69250</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-0.4098360655737705</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B716" t="n">
+        <v>72100</v>
+      </c>
+      <c r="C716" t="n">
+        <v>72400</v>
+      </c>
+      <c r="D716" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E716" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F716" t="n">
+        <v>128995</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-2.606310013717421</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B717" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C717" t="n">
+        <v>71400</v>
+      </c>
+      <c r="D717" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E717" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F717" t="n">
+        <v>111154</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-1.408450704225352</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B718" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C718" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D718" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E718" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F718" t="n">
+        <v>196930</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-2.714285714285714</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B719" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C719" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D719" t="n">
+        <v>65700</v>
+      </c>
+      <c r="E719" t="n">
+        <v>66100</v>
+      </c>
+      <c r="F719" t="n">
+        <v>200755</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-2.936857562408223</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B720" t="n">
+        <v>65900</v>
+      </c>
+      <c r="C720" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D720" t="n">
+        <v>64600</v>
+      </c>
+      <c r="E720" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F720" t="n">
+        <v>120006</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1.361573373676248</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B721" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C721" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D721" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E721" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F721" t="n">
+        <v>78927</v>
+      </c>
+      <c r="G721" t="n">
+        <v>0.8955223880597015</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B722" t="n">
+        <v>66200</v>
+      </c>
+      <c r="C722" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D722" t="n">
+        <v>65900</v>
+      </c>
+      <c r="E722" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F722" t="n">
+        <v>164287</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-0.4437869822485207</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B723" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C723" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D723" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E723" t="n">
+        <v>65700</v>
+      </c>
+      <c r="F723" t="n">
+        <v>96263</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-2.37741456166419</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B724" t="n">
+        <v>64800</v>
+      </c>
+      <c r="C724" t="n">
+        <v>65500</v>
+      </c>
+      <c r="D724" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E724" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F724" t="n">
+        <v>157458</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-4.5662100456621</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B725" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C725" t="n">
+        <v>62500</v>
+      </c>
+      <c r="D725" t="n">
+        <v>60600</v>
+      </c>
+      <c r="E725" t="n">
+        <v>60600</v>
+      </c>
+      <c r="F725" t="n">
+        <v>126230</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-3.349282296650718</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B726" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C726" t="n">
+        <v>61400</v>
+      </c>
+      <c r="D726" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E726" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F726" t="n">
+        <v>107237</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-1.32013201320132</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B727" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C727" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D727" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E727" t="n">
+        <v>60800</v>
+      </c>
+      <c r="F727" t="n">
+        <v>124521</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1.672240802675585</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B728" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C728" t="n">
+        <v>60500</v>
+      </c>
+      <c r="D728" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E728" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F728" t="n">
+        <v>96156</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-1.31578947368421</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B729" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C729" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D729" t="n">
+        <v>60500</v>
+      </c>
+      <c r="E729" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F729" t="n">
+        <v>98803</v>
+      </c>
+      <c r="G729" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B730" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C730" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D730" t="n">
+        <v>61300</v>
+      </c>
+      <c r="E730" t="n">
+        <v>62400</v>
+      </c>
+      <c r="F730" t="n">
+        <v>64029</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-0.4784688995215311</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B731" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C731" t="n">
+        <v>65100</v>
+      </c>
+      <c r="D731" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E731" t="n">
+        <v>64200</v>
+      </c>
+      <c r="F731" t="n">
+        <v>124807</v>
+      </c>
+      <c r="G731" t="n">
+        <v>2.884615384615385</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B732" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C732" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D732" t="n">
+        <v>61400</v>
+      </c>
+      <c r="E732" t="n">
+        <v>61700</v>
+      </c>
+      <c r="F732" t="n">
+        <v>117814</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-3.894080996884735</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B733" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C733" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D733" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E733" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F733" t="n">
+        <v>90887</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1.782820097244733</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B734" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C734" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D734" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E734" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F734" t="n">
+        <v>108637</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1.273885350318471</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B735" t="n">
+        <v>62100</v>
+      </c>
+      <c r="C735" t="n">
+        <v>62200</v>
+      </c>
+      <c r="D735" t="n">
+        <v>58600</v>
+      </c>
+      <c r="E735" t="n">
+        <v>59100</v>
+      </c>
+      <c r="F735" t="n">
+        <v>661182</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-7.075471698113208</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B736" t="n">
+        <v>58700</v>
+      </c>
+      <c r="C736" t="n">
+        <v>59600</v>
+      </c>
+      <c r="D736" t="n">
+        <v>58600</v>
+      </c>
+      <c r="E736" t="n">
+        <v>58900</v>
+      </c>
+      <c r="F736" t="n">
+        <v>131477</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-0.338409475465313</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B737" t="n">
+        <v>59400</v>
+      </c>
+      <c r="C737" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D737" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E737" t="n">
+        <v>59400</v>
+      </c>
+      <c r="F737" t="n">
+        <v>164711</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.8488964346349746</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B738" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C738" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D738" t="n">
+        <v>58700</v>
+      </c>
+      <c r="E738" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F738" t="n">
+        <v>288930</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-0.6734006734006733</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B739" t="n">
+        <v>58900</v>
+      </c>
+      <c r="C739" t="n">
+        <v>59300</v>
+      </c>
+      <c r="D739" t="n">
+        <v>58500</v>
+      </c>
+      <c r="E739" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F739" t="n">
+        <v>147196</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B740" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C740" t="n">
+        <v>59300</v>
+      </c>
+      <c r="D740" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E740" t="n">
+        <v>58600</v>
+      </c>
+      <c r="F740" t="n">
+        <v>241783</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-0.6779661016949152</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B741" t="n">
+        <v>59100</v>
+      </c>
+      <c r="C741" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D741" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E741" t="n">
+        <v>58600</v>
+      </c>
+      <c r="F741" t="n">
+        <v>122951</v>
+      </c>
+      <c r="G741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B742" t="n">
+        <v>58900</v>
+      </c>
+      <c r="C742" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D742" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E742" t="n">
+        <v>57100</v>
+      </c>
+      <c r="F742" t="n">
+        <v>189973</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-2.559726962457338</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B743" t="n">
+        <v>57100</v>
+      </c>
+      <c r="C743" t="n">
+        <v>58200</v>
+      </c>
+      <c r="D743" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E743" t="n">
+        <v>57300</v>
+      </c>
+      <c r="F743" t="n">
+        <v>98238</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.3502626970227671</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B744" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C744" t="n">
+        <v>58200</v>
+      </c>
+      <c r="D744" t="n">
+        <v>57200</v>
+      </c>
+      <c r="E744" t="n">
+        <v>57600</v>
+      </c>
+      <c r="F744" t="n">
+        <v>198098</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.5235602094240838</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B745" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C745" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D745" t="n">
+        <v>54000</v>
+      </c>
+      <c r="E745" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F745" t="n">
+        <v>459462</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-5.381944444444445</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B746" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C746" t="n">
+        <v>54700</v>
+      </c>
+      <c r="D746" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E746" t="n">
+        <v>52400</v>
+      </c>
+      <c r="F746" t="n">
+        <v>371266</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-3.853211009174312</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B747" t="n">
+        <v>51500</v>
+      </c>
+      <c r="C747" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D747" t="n">
+        <v>49800</v>
+      </c>
+      <c r="E747" t="n">
+        <v>50100</v>
+      </c>
+      <c r="F747" t="n">
+        <v>445178</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-4.389312977099237</v>
       </c>
     </row>
   </sheetData>
